--- a/medicine/Pharmacie/Classe_ATC_N02/Classe_ATC_N02.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_N02/Classe_ATC_N02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC N02, dénommée « Analgésiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN02[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC N02, dénommée « Analgésiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QN02. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique N de la classification, intitulé « Système nerveux ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N02AA Alcaloïdes naturels de l'opium
-N02AA01 Morphine
+          <t>N02AA Alcaloïdes naturels de l'opium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N02AA01 Morphine
 N02AA02 Opium
 N02AA03 Hydromorphone
 N02AA04 Nicomorphine
@@ -527,41 +544,279 @@
 N02AA56 Oxycodone et naltrexone
 N02AA58 Dihydrocodéine, associations
 N02AA59 Codéine, associations excluant psycholeptiques
-N02AA79 Codéine, associations avec psycholeptiques
-N02AB Dérivés de la phénylpipéridine
-N02AB01 Kétobémidone
+N02AA79 Codéine, associations avec psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N02A Opiacés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N02AB Dérivés de la phénylpipéridine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N02AB01 Kétobémidone
 N02AB02 Péthidine
 N02AB03 Fentanyl
 N02AB52 Péthidine, associations excluant psycholeptiques
 QN02AB53 Fentanyl, associations excluant psycholeptiques
 N02AB72 Péthidine, associations avec psycholeptiques
-QN02AB73 Fentanyl, associations avec psycholeptiques
-N02AC Dérivés de la diphénylpropylamine
-N02AC01 Dextromoramide
+QN02AB73 Fentanyl, associations avec psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N02A Opiacés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N02AC Dérivés de la diphénylpropylamine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N02AC01 Dextromoramide
 N02AC03 Piritramide
 N02AC04 Dextropropoxyphène
 N02AC05 Bézitramide
 N02AC52 Méthadone, associations sans psycholeptiques
 N02AC54 Dextropropoxyphène, associations sans psycholeptiques
 N02AC74 Dextropropoxyphène, associations avec des psycholeptiques
-QN02AC90 Méthadone
-N02AD Dérivés du benzomorphane
-N02AD01 Pentazocine
-N02AD02 Phénazocine
-N02AE Dérivés de l'oripavine
-N02AE01 Buprénorphine
+QN02AC90 Méthadone</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N02A Opiacés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N02AD Dérivés du benzomorphane</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N02AD01 Pentazocine
+N02AD02 Phénazocine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N02A Opiacés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>N02AE Dérivés de l'oripavine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N02AE01 Buprénorphine
 « QN02AE90 » Étorphine
-« QN02AE99 » Dérivés de l'oripavine, associations
-N02AF Dérivés du morphinane
-N02AF01 Butorphanol
-N02AF02 Nalbuphine
-N02AG Opiacés en association avec antispasmodiques
-N02AG01 Morphine et antispasmodiques
+« QN02AE99 » Dérivés de l'oripavine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N02A Opiacés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N02AF Dérivés du morphinane</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N02AF01 Butorphanol
+N02AF02 Nalbuphine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N02A Opiacés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>N02AG Opiacés en association avec antispasmodiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N02AG01 Morphine et antispasmodiques
 N02AG02 Kétobémidone et antispasmodiques
 N02AG03 Péthidine et antispasmodiques
-N02AG04 Hydromorphone et antispasmodiques
-N02AJ Opiacés en association avec analgésiques non-opioïdes
-N02AJ01 Dihydrocodéine et paracétamol
+N02AG04 Hydromorphone et antispasmodiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N02A Opiacés</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N02AJ Opiacés en association avec analgésiques non-opioïdes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N02AJ01 Dihydrocodéine et paracétamol
 N02AJ02 Dihydrocodéine et acide acétylsalicylique
 N02AJ03 Dihydrocodéine et autres analgésiques non-opioïdes
 N02AJ06 Codéine et paracétamol
@@ -573,9 +828,43 @@
 N02AJ15 Tramadol et autres analgésiques non-opioïdes
 N02AJ17 Oxycodone et paracétamol
 N02AJ18 Oxycodone et acide acétylsalicylique
-N02AJ19 Oxycodone et ibuprofène
-N02AX Autres opiacés
-N02AX01 Tilidine
+N02AJ19 Oxycodone et ibuprofène</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N02A Opiacés</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N02AX Autres opiacés</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N02AX01 Tilidine
 N02AX02 Tramadol
 N02AX03 Dézocine
 N02AX05 Meptazinol
@@ -583,34 +872,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_N02</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>N02B Autres analgésiques et antipyrétiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>N02BA Acide salicylique et dérivés (salicylés)
-N02BA01 Acide acétylsalicylique
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N02BA Acide salicylique et dérivés (salicylés)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N02BA01 Acide acétylsalicylique
 N02BA02 Aloxiprine
 N02BA03 Salicylate de choline
 N02BA04 Salicylate de sodium
@@ -633,9 +927,43 @@
 N02BA71 Acide acétylsalicylique, associations avec psycholeptiques
 N02BA75 Salicylamide, associations avec psycholeptiques
 N02BA77 Éthenzamide, associations avec psycholeptiques
-N02BA79 Dipyrocétyl, associations avec psycholeptiques
-N02BB Pyrazolones
-N02BB01 Phénazone
+N02BA79 Dipyrocétyl, associations avec psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N02B Autres analgésiques et antipyrétiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N02BB Pyrazolones</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N02BB01 Phénazone
 N02BB02 Métamizole sodique
 N02BB03 Aminophénazone
 N02BB04 Propyphénazone
@@ -647,9 +975,43 @@
 N02BB71 Phénazone, associations excluant psycholeptiques
 N02BB72 Métamizole sodique, associations excluant psycholeptiques
 N02BB73 Aminophénazone, associations avec psycholeptiques
-N02BB74 Propyphénazone, associations avec psycholeptiques
-N02BE Anilides
-N02BE01 Paracétamol
+N02BB74 Propyphénazone, associations avec psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N02B Autres analgésiques et antipyrétiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N02BE Anilides</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N02BE01 Paracétamol
 N02BE03 Phénacétine
 N02BE04 Bucétine
 N02BE05 Propacétamol
@@ -658,9 +1020,43 @@
 N02BE54 Bucétine, associations excluant psycholeptiques
 N02BE71 Paracétamol, associations avec psycholeptiques
 N02BE73 Phénacétine, associations avec psycholeptiques
-N02BE74 Bucétine, associations avec psycholeptiques
-N02BG Autres analgésiques et antipyrétiques
-N02BG02 Rimazolium
+N02BE74 Bucétine, associations avec psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N02B Autres analgésiques et antipyrétiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>N02BG Autres analgésiques et antipyrétiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N02BG02 Rimazolium
 N02BG03 Glafénine
 N02BG04 Floctafénine
 N02BG05 Viminol
@@ -672,52 +1068,159 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_N02</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>N02C Médicaments antimigraineux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>N02CA Alcaloïdes de l'ergot (du seigle)
-N02CA01 Dihydroergotamine
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N02CA Alcaloïdes de l'ergot (du seigle)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N02CA01 Dihydroergotamine
 N02CA02 Ergotamine
 N02CA04 Méthysergide
 N02CA07 Lisuride
 N02CA51 Dihydroergotamine, associations
 N02CA52 Ergotamine, associations excluant psycholeptiques
-N02CA72 Ergotamine, associations avec psycholeptiques
-N02CB Dérivés des corticostéroïdes
-N02CB01 Flumédroxone
-N02CC Agonistes sélectifs de la sérotonine (5-HT1) (« triptans »)
-N02CC01 Sumatriptan
+N02CA72 Ergotamine, associations avec psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N02C Médicaments antimigraineux</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N02CB Dérivés des corticostéroïdes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N02CB01 Flumédroxone</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N02C Médicaments antimigraineux</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N02CC Agonistes sélectifs de la sérotonine (5-HT1) (« triptans »)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N02CC01 Sumatriptan
 N02CC02 Naratriptan
 N02CC03 Zolmitriptan
 N02CC04 Rizatriptan
 N02CC05 Almotriptan
 N02CC06 Élétriptan
-N02CC07 Frovatriptan
-N02CX Autres médicaments antimigraineux
-N02CX01 Pizotifène
+N02CC07 Frovatriptan</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_N02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N02C Médicaments antimigraineux</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>N02CX Autres médicaments antimigraineux</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N02CX01 Pizotifène
 N02CX02 Clonidine
 N02CX03 Iprazochrome
 N02CX05 Dimétotiazine
